--- a/Projects/DelCo_2014_04/Test_Notes/FIRE_FA2S1C1NCX1_3_Notes_DM.xlsx
+++ b/Projects/DelCo_2014_04/Test_Notes/FIRE_FA2S1C1NCX1_3_Notes_DM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6320" yWindow="3100" windowWidth="24080" windowHeight="16640"/>
+    <workbookView xWindow="6320" yWindow="3080" windowWidth="24080" windowHeight="16640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Event</t>
   </si>
@@ -69,15 +69,9 @@
     <t>Video Deck Time = 18:03:47</t>
   </si>
   <si>
-    <t xml:space="preserve">Video Recording Time = </t>
-  </si>
-  <si>
     <t>Data Time = 4:00</t>
   </si>
   <si>
-    <t>3:45:00 PM check video</t>
-  </si>
-  <si>
     <t>Check video</t>
   </si>
   <si>
@@ -97,6 +91,9 @@
   </si>
   <si>
     <t>Start of pretest</t>
+  </si>
+  <si>
+    <t>Video Recording Time = 17:53</t>
   </si>
 </sst>
 </file>
@@ -464,7 +461,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -483,22 +480,22 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -521,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -532,7 +529,7 @@
         <v>240</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -635,8 +632,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="42">
-      <c r="A12" s="1">
-        <v>0.60416666666666663</v>
+      <c r="A12" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B12" s="4">
         <v>14</v>
@@ -654,7 +651,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -683,7 +680,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -761,7 +758,7 @@
         <v>2280</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
